--- a/demo/tablas_excel/CR/revocando/100_credenciales_describe.xlsx
+++ b/demo/tablas_excel/CR/revocando/100_credenciales_describe.xlsx
@@ -525,7 +525,7 @@
         <v>0.276</v>
       </c>
       <c r="F3" t="n">
-        <v>9.0924</v>
+        <v>0.09092400000000002</v>
       </c>
       <c r="G3" t="n">
         <v>68.7188</v>
@@ -556,7 +556,7 @@
         <v>0.006454972243679029</v>
       </c>
       <c r="F4" t="n">
-        <v>0.560091361594993</v>
+        <v>0.005600913615949928</v>
       </c>
       <c r="G4" t="n">
         <v>5.055500568687537</v>
@@ -587,7 +587,7 @@
         <v>0.26</v>
       </c>
       <c r="F5" t="n">
-        <v>8.73</v>
+        <v>0.0873</v>
       </c>
       <c r="G5" t="n">
         <v>63.53</v>
@@ -618,7 +618,7 @@
         <v>0.27</v>
       </c>
       <c r="F6" t="n">
-        <v>8.9</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>65.13</v>
@@ -649,7 +649,7 @@
         <v>0.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.02</v>
+        <v>0.0902</v>
       </c>
       <c r="G7" t="n">
         <v>66.54000000000001</v>
@@ -680,7 +680,7 @@
         <v>0.28</v>
       </c>
       <c r="F8" t="n">
-        <v>9.06</v>
+        <v>0.0906</v>
       </c>
       <c r="G8" t="n">
         <v>72.06999999999999</v>
@@ -711,7 +711,7 @@
         <v>0.29</v>
       </c>
       <c r="F9" t="n">
-        <v>11.69</v>
+        <v>0.1169</v>
       </c>
       <c r="G9" t="n">
         <v>80.42</v>
